--- a/Data Files/mainMenu.xlsx
+++ b/Data Files/mainMenu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -130,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
